--- a/resource/input.xlsx
+++ b/resource/input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Documents\GitHub\localrepo\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
   <si>
     <t>R1</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Types</t>
   </si>
   <si>
-    <t># of ECs</t>
-  </si>
-  <si>
-    <t>Values for ECs</t>
-  </si>
-  <si>
     <t>Bondary Values</t>
   </si>
   <si>
@@ -161,13 +155,40 @@
   </si>
   <si>
     <t>R4</t>
+  </si>
+  <si>
+    <t>ECs  and Values</t>
+  </si>
+  <si>
+    <t>D4 = {a,b,c : 1..200 | b = c, a ≠ b}</t>
+  </si>
+  <si>
+    <t>D1 = {a,b,c : 1..200 | a = b = c }</t>
+  </si>
+  <si>
+    <t>D2 = {a,b,c : 1..200 | a = b, a ≠ c}</t>
+  </si>
+  <si>
+    <t>D3 = {a,b,c : 1..200 | a = c, a ≠ b}</t>
+  </si>
+  <si>
+    <t>D5 = {a,b,c : 1..200 | a ≠ b, a ≠ c, b ≠ c}</t>
+  </si>
+  <si>
+    <t>D6 = {a,b,c : 1..200 | a ≥ b+c }</t>
+  </si>
+  <si>
+    <t>D7 = {a,b,c : 1..200 | b ≥ a+c }</t>
+  </si>
+  <si>
+    <t>D8 = {a,b,c : 1..200 | c ≥ a+b}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +209,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -224,11 +253,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bağlı Hücre" xfId="1" builtinId="24"/>
@@ -574,23 +604,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,63 +642,92 @@
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="30.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -676,31 +735,55 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>199</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>200</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -708,31 +791,55 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
       <c r="J4">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>250</v>
+      </c>
+      <c r="P4">
+        <v>498</v>
+      </c>
+      <c r="Q4">
+        <v>499</v>
+      </c>
+      <c r="R4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -740,32 +847,57 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
       <c r="J5">
-        <v>199</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>201</v>
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>500</v>
+      </c>
+      <c r="P5">
+        <v>998</v>
+      </c>
+      <c r="Q5">
+        <v>999</v>
+      </c>
+      <c r="R5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1005,7 +1137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/resource/input.xlsx
+++ b/resource/input.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
   <si>
     <t>R1</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Types</t>
   </si>
   <si>
-    <t>Bondary Values</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -157,38 +154,71 @@
     <t>R4</t>
   </si>
   <si>
-    <t>ECs  and Values</t>
-  </si>
-  <si>
-    <t>D4 = {a,b,c : 1..200 | b = c, a ≠ b}</t>
-  </si>
-  <si>
-    <t>D1 = {a,b,c : 1..200 | a = b = c }</t>
-  </si>
-  <si>
-    <t>D2 = {a,b,c : 1..200 | a = b, a ≠ c}</t>
-  </si>
-  <si>
-    <t>D3 = {a,b,c : 1..200 | a = c, a ≠ b}</t>
-  </si>
-  <si>
-    <t>D5 = {a,b,c : 1..200 | a ≠ b, a ≠ c, b ≠ c}</t>
-  </si>
-  <si>
-    <t>D6 = {a,b,c : 1..200 | a ≥ b+c }</t>
-  </si>
-  <si>
-    <t>D7 = {a,b,c : 1..200 | b ≥ a+c }</t>
-  </si>
-  <si>
-    <t>D8 = {a,b,c : 1..200 | c ≥ a+b}</t>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a = b = c }</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a = b, a ≠ c}</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a = c, a ≠ b}</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | b = c, a ≠ b}</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a ≠ b, a ≠ c, b ≠ c}</t>
+  </si>
+  <si>
+    <t>EQ CLASSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6 </t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | a ≥ b+c }</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | b ≥ a+c }</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>{a,b,c : 1..200 | c ≥ a+b}</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>Boundary Values</t>
+  </si>
+  <si>
+    <t>ECs and Values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +252,47 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -248,17 +309,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bağlı Hücre" xfId="1" builtinId="24"/>
@@ -604,23 +753,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -631,268 +780,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="30.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>100</v>
+      </c>
+      <c r="P3" s="11">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>200</v>
+      </c>
+      <c r="R3" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+      <c r="N4" s="11">
+        <v>7</v>
+      </c>
+      <c r="O4" s="11">
+        <v>250</v>
+      </c>
+      <c r="P4" s="11">
+        <v>498</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>499</v>
+      </c>
+      <c r="R4" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>4</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>500</v>
+      </c>
+      <c r="P5" s="11">
+        <v>998</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>999</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-      <c r="P3">
-        <v>199</v>
-      </c>
-      <c r="Q3">
-        <v>200</v>
-      </c>
-      <c r="R3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
-        <v>7</v>
-      </c>
-      <c r="O4">
-        <v>250</v>
-      </c>
-      <c r="P4">
-        <v>498</v>
-      </c>
-      <c r="Q4">
-        <v>499</v>
-      </c>
-      <c r="R4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>11</v>
-      </c>
-      <c r="N5">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>500</v>
-      </c>
-      <c r="P5">
-        <v>998</v>
-      </c>
-      <c r="Q5">
-        <v>999</v>
-      </c>
-      <c r="R5">
-        <v>1000</v>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
